--- a/data/trans_orig/P20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4863</v>
+        <v>4919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20215</v>
+        <v>19471</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0205253966434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009861249661998393</v>
+        <v>0.009974269686935218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04099470744648982</v>
+        <v>0.03948632982354253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>28349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18762</v>
+        <v>19829</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41537</v>
+        <v>41543</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06064140393878306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04013454073529235</v>
+        <v>0.0424164568562941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08885159637942462</v>
+        <v>0.08886478114664401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>38471</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28258</v>
+        <v>28417</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52729</v>
+        <v>53767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0400482257935309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02941715973734816</v>
+        <v>0.02958275345950654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05489082470089284</v>
+        <v>0.05597212443257857</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>482999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472905</v>
+        <v>473649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>488257</v>
+        <v>488201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9794746033566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9590052925535102</v>
+        <v>0.9605136701764572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9901387503380015</v>
+        <v>0.9900257303130648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>462</v>
@@ -836,19 +836,19 @@
         <v>439140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>425952</v>
+        <v>425946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>448727</v>
+        <v>447660</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.939358596061217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9111484036205754</v>
+        <v>0.9111352188533559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9598654592647077</v>
+        <v>0.9575835431437059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>951</v>
@@ -857,19 +857,19 @@
         <v>922138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>907880</v>
+        <v>906842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>932351</v>
+        <v>932192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9599517742064692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9451091752991072</v>
+        <v>0.9440278755674215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.970582840262652</v>
+        <v>0.9704172465404935</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14720</v>
+        <v>15005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34638</v>
+        <v>33982</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03177609223895509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02001378549957769</v>
+        <v>0.02040122511625857</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04709538554485953</v>
+        <v>0.04620283533930842</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -982,19 +982,19 @@
         <v>74288</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58409</v>
+        <v>58343</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91491</v>
+        <v>90949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1187672157467436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09338001423350371</v>
+        <v>0.09327493879559165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1462703551326804</v>
+        <v>0.1454033175067489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -1003,19 +1003,19 @@
         <v>97659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80578</v>
+        <v>79557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117895</v>
+        <v>118941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07175633658479057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05920541978426645</v>
+        <v>0.05845562308856747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08662490208636417</v>
+        <v>0.08739347562080033</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>712118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>700851</v>
+        <v>701507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>720769</v>
+        <v>720484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9682239077610449</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9529046144551405</v>
+        <v>0.9537971646606915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9799862145004223</v>
+        <v>0.9795987748837414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>521</v>
@@ -1053,19 +1053,19 @@
         <v>551206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534003</v>
+        <v>534545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>567085</v>
+        <v>567151</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8812327842532564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8537296448673195</v>
+        <v>0.8545966824932512</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9066199857664962</v>
+        <v>0.9067250612044083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1201</v>
@@ -1074,19 +1074,19 @@
         <v>1263323</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1243087</v>
+        <v>1242041</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1280404</v>
+        <v>1281425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9282436634152095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9133750979136357</v>
+        <v>0.9126065243791996</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9407945802157334</v>
+        <v>0.9415443769114324</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10542</v>
+        <v>10427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27162</v>
+        <v>26904</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02797073998942744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01650635500902836</v>
+        <v>0.01632674083243275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04252853167447206</v>
+        <v>0.04212559441546646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1199,19 +1199,19 @@
         <v>33877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23312</v>
+        <v>23678</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46718</v>
+        <v>46025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04911552712176804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03379875257266016</v>
+        <v>0.03432829192921515</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06773267755538719</v>
+        <v>0.06672775530420284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1220,19 +1220,19 @@
         <v>51741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38418</v>
+        <v>39268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67430</v>
+        <v>66388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03894963600810843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02892028759602057</v>
+        <v>0.02956000352841537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05075988495402661</v>
+        <v>0.04997573104939066</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>620804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611506</v>
+        <v>611764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628126</v>
+        <v>628241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9720292600105725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9574714683255282</v>
+        <v>0.9578744055845336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9834936449909717</v>
+        <v>0.9836732591675673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>625</v>
@@ -1270,19 +1270,19 @@
         <v>655867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643026</v>
+        <v>643719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>666432</v>
+        <v>666066</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.950884472878232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9322673224446131</v>
+        <v>0.9332722446957972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9662012474273401</v>
+        <v>0.9656717080707851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1220</v>
@@ -1291,19 +1291,19 @@
         <v>1276671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1260982</v>
+        <v>1262024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1289994</v>
+        <v>1289144</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9610503639918916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9492401150459733</v>
+        <v>0.9500242689506093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9710797124039794</v>
+        <v>0.9704399964715846</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14356</v>
+        <v>14161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33594</v>
+        <v>33965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04304365479603153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02765354205111372</v>
+        <v>0.0272781597461379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06470988946619453</v>
+        <v>0.06542543567609509</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1416,19 +1416,19 @@
         <v>25856</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17723</v>
+        <v>17885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36748</v>
+        <v>36076</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05014353213048357</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03437136047259623</v>
+        <v>0.03468548579887738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07126636252517855</v>
+        <v>0.06996259709189688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -1437,19 +1437,19 @@
         <v>48202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34917</v>
+        <v>35711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63189</v>
+        <v>63920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04658156905830939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03374351345983455</v>
+        <v>0.03451007338948404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06106437677348118</v>
+        <v>0.06177087794388673</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>496801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485553</v>
+        <v>485182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504791</v>
+        <v>504986</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9569563452039684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9352901105338054</v>
+        <v>0.9345745643239046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9723464579488862</v>
+        <v>0.9727218402538621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>476</v>
@@ -1487,19 +1487,19 @@
         <v>489786</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478894</v>
+        <v>479566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497919</v>
+        <v>497757</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9498564678695164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9287336374748215</v>
+        <v>0.9300374029081031</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9656286395274041</v>
+        <v>0.9653145142011227</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>939</v>
@@ -1508,19 +1508,19 @@
         <v>986587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>971600</v>
+        <v>970869</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>999872</v>
+        <v>999078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9534184309416907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9389356232265189</v>
+        <v>0.9382291220561133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9662564865401655</v>
+        <v>0.9654899266105159</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>19341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12516</v>
+        <v>12253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28603</v>
+        <v>30160</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05001530249441096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03236609163931801</v>
+        <v>0.0316858148330454</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0739645856139199</v>
+        <v>0.07799127481406504</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>24672</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15984</v>
+        <v>16723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36240</v>
+        <v>36131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06107098100072846</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03956673835209095</v>
+        <v>0.04139513083578292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08970623706379356</v>
+        <v>0.08943649485619956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1654,19 +1654,19 @@
         <v>44013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33287</v>
+        <v>32323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58073</v>
+        <v>58300</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05566391969330821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04209783839882474</v>
+        <v>0.04087969378100368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07344492265723127</v>
+        <v>0.07373301313531332</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>367369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358107</v>
+        <v>356550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>374194</v>
+        <v>374457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.949984697505589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9260354143860801</v>
+        <v>0.9220087251859349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9676339083606817</v>
+        <v>0.9683141851669544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1704,19 +1704,19 @@
         <v>379314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>367746</v>
+        <v>367855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388002</v>
+        <v>387263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9389290189992715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9102937629362063</v>
+        <v>0.9105635051438001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.960433261647909</v>
+        <v>0.9586048691642171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>743</v>
@@ -1725,19 +1725,19 @@
         <v>746683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>732623</v>
+        <v>732396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>757409</v>
+        <v>758373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9443360803066918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9265550773427687</v>
+        <v>0.9262669868646863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.957902161601175</v>
+        <v>0.9591203062189962</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>22870</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15119</v>
+        <v>14898</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31917</v>
+        <v>33543</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07816595049830569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05167269618941366</v>
+        <v>0.05092045889372103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1090874453038893</v>
+        <v>0.1146428082873875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1850,19 +1850,19 @@
         <v>29399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20749</v>
+        <v>20330</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41515</v>
+        <v>40919</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08572681059637208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06050367170530989</v>
+        <v>0.05928390109628747</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1210593440377124</v>
+        <v>0.1193198261012857</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -1871,19 +1871,19 @@
         <v>52269</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40419</v>
+        <v>40907</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66771</v>
+        <v>66233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08224589799389266</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06359940200895167</v>
+        <v>0.06436775871699182</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1050663519815717</v>
+        <v>0.1042197239158206</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>269713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260666</v>
+        <v>259040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277464</v>
+        <v>277685</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9218340495016943</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8909125546961106</v>
+        <v>0.8853571917126125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9483273038105864</v>
+        <v>0.9490795411062789</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -1921,19 +1921,19 @@
         <v>313535</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301419</v>
+        <v>302015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322185</v>
+        <v>322604</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9142731894036279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8789406559622872</v>
+        <v>0.8806801738987142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9394963282946899</v>
+        <v>0.9407160989037125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>618</v>
@@ -1942,19 +1942,19 @@
         <v>583248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>568746</v>
+        <v>569284</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>595098</v>
+        <v>594610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9177541020061073</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8949336480184285</v>
+        <v>0.89578027608418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9364005979910486</v>
+        <v>0.9356322412830085</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>19512</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11933</v>
+        <v>12019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29457</v>
+        <v>29321</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09296736440801678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05685603843195557</v>
+        <v>0.05726399337565913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1403499856709841</v>
+        <v>0.1397000598371636</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2067,19 +2067,19 @@
         <v>32900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22183</v>
+        <v>22839</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44962</v>
+        <v>46490</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09852915476200443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06643498089514151</v>
+        <v>0.06839844568693966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1346532068786996</v>
+        <v>0.1392304053698931</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2088,19 +2088,19 @@
         <v>52412</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39278</v>
+        <v>39586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67559</v>
+        <v>68360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09638251150286221</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07223071724974231</v>
+        <v>0.07279614363324623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1242376327875445</v>
+        <v>0.1257106914939816</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>190371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>180426</v>
+        <v>180562</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>197950</v>
+        <v>197864</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9070326355919832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8596500143290159</v>
+        <v>0.8602999401628362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9431439615680444</v>
+        <v>0.9427360066243407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>260</v>
@@ -2138,19 +2138,19 @@
         <v>301008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>288946</v>
+        <v>287418</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311725</v>
+        <v>311069</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9014708452379956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8653467931213004</v>
+        <v>0.8607695946301068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9335650191048585</v>
+        <v>0.9316015543130602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>460</v>
@@ -2159,19 +2159,19 @@
         <v>491379</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>476232</v>
+        <v>475431</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>504513</v>
+        <v>504205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9036174884971377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8757623672124554</v>
+        <v>0.8742893085060193</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9277692827502577</v>
+        <v>0.9272038563667538</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>135426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04134393321758539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -2284,19 +2284,19 @@
         <v>249341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07378697910889559</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>378</v>
@@ -2305,19 +2305,19 @@
         <v>384767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05781798447047931</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3140173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3115097</v>
+        <v>3115527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3161548</v>
+        <v>3160380</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9586560667824147</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9510005947665978</v>
+        <v>0.9511320696888642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9651817767626572</v>
+        <v>0.9648249486626171</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3055</v>
@@ -2355,19 +2355,19 @@
         <v>3129856</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3097024</v>
+        <v>3098188</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3158188</v>
+        <v>3158388</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9262130208911044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9164969147224125</v>
+        <v>0.916841528544834</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9345972624402481</v>
+        <v>0.9346564730543541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6132</v>
@@ -2376,19 +2376,19 @@
         <v>6270029</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6228342</v>
+        <v>6225521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6304507</v>
+        <v>6304579</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9421820155295207</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9359177277182572</v>
+        <v>0.9354938163321341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9473629815619754</v>
+        <v>0.9473737179892735</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>14809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7972</v>
+        <v>8486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23169</v>
+        <v>24245</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03275531354903592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01763394270279337</v>
+        <v>0.01876917436229541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05124831564496892</v>
+        <v>0.05362688400089107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2744,19 +2744,19 @@
         <v>35207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24798</v>
+        <v>24886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48422</v>
+        <v>49023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08183307248066736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05763942355806419</v>
+        <v>0.05784310215408924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1125501376744748</v>
+        <v>0.1139469438933377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2765,19 +2765,19 @@
         <v>50016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36847</v>
+        <v>37904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64942</v>
+        <v>65977</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05668598813008411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04176145049803808</v>
+        <v>0.04295916507452771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07360342246743032</v>
+        <v>0.07477642220803304</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>437290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>428930</v>
+        <v>427854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>444127</v>
+        <v>443613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9672446864509641</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9487516843550311</v>
+        <v>0.9463731159991089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9823660572972068</v>
+        <v>0.9812308256377046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>387</v>
@@ -2815,19 +2815,19 @@
         <v>395023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>381808</v>
+        <v>381207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>405432</v>
+        <v>405344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9181669275193326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8874498623255253</v>
+        <v>0.8860530561066624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9423605764419362</v>
+        <v>0.9421568978459108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>817</v>
@@ -2836,19 +2836,19 @@
         <v>832313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>817387</v>
+        <v>816352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>845482</v>
+        <v>844425</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9433140118699159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9263965775325697</v>
+        <v>0.925223577791967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.958238549501962</v>
+        <v>0.9570408349254722</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>30673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21011</v>
+        <v>20885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43243</v>
+        <v>43085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04464215416634223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03058026829520295</v>
+        <v>0.03039712928949992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06293707051568433</v>
+        <v>0.06270698440328121</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -2961,19 +2961,19 @@
         <v>87029</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70188</v>
+        <v>71702</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106611</v>
+        <v>106953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1426114983810971</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1150137136667584</v>
+        <v>0.1174944218791629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1746988684458872</v>
+        <v>0.1752590520009538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -2982,19 +2982,19 @@
         <v>117702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97534</v>
+        <v>98941</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139458</v>
+        <v>141088</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09072584029060837</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07517953106731912</v>
+        <v>0.07626475786966554</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1074955439739066</v>
+        <v>0.1087514592448249</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>656414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>643844</v>
+        <v>644002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>666076</v>
+        <v>666202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9553578458336578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9370629294843156</v>
+        <v>0.9372930155967187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.969419731704797</v>
+        <v>0.9696028707105001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>489</v>
@@ -3032,19 +3032,19 @@
         <v>523226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503644</v>
+        <v>503302</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>540067</v>
+        <v>538553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8573885016189029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.825301131554113</v>
+        <v>0.8247409479990465</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8849862863332418</v>
+        <v>0.8825055781208375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1126</v>
@@ -3053,19 +3053,19 @@
         <v>1179640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1157884</v>
+        <v>1156254</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1199808</v>
+        <v>1198401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9092741597093916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8925044560260934</v>
+        <v>0.8912485407551751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9248204689326808</v>
+        <v>0.9237352421303344</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>37203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26027</v>
+        <v>25432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51562</v>
+        <v>51670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05456101487937542</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03817061862735048</v>
+        <v>0.03729724775412455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07561969670113543</v>
+        <v>0.07577819108956826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3178,19 +3178,19 @@
         <v>56833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44202</v>
+        <v>43498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73553</v>
+        <v>72294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07995012777581355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06218159478572968</v>
+        <v>0.06119112865787296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1034715747515652</v>
+        <v>0.1017002067191931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3199,19 +3199,19 @@
         <v>94036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75882</v>
+        <v>76769</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115040</v>
+        <v>116027</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06751978746227155</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05448493607569804</v>
+        <v>0.05512175098522484</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08260128440353449</v>
+        <v>0.08331039549681735</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>644660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>630301</v>
+        <v>630193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655836</v>
+        <v>656431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9454389851206245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9243803032988647</v>
+        <v>0.9242218089104317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9618293813726495</v>
+        <v>0.9627027522458754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>615</v>
@@ -3249,19 +3249,19 @@
         <v>654017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637297</v>
+        <v>638556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>666648</v>
+        <v>667352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9200498722241864</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8965284252484349</v>
+        <v>0.8982997932808069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9378184052142703</v>
+        <v>0.9388088713421271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1233</v>
@@ -3270,19 +3270,19 @@
         <v>1298676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1277672</v>
+        <v>1276685</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316830</v>
+        <v>1315943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9324802125377285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9173987155964658</v>
+        <v>0.9166896045031825</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9455150639243021</v>
+        <v>0.9448782490147751</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>32953</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22816</v>
+        <v>23026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46404</v>
+        <v>46497</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05361613460948542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.037121716865059</v>
+        <v>0.03746424783684794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07550020487972647</v>
+        <v>0.07565253326713504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -3395,19 +3395,19 @@
         <v>50884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37477</v>
+        <v>38015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68373</v>
+        <v>67685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08257759835239917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06082028530157641</v>
+        <v>0.06169216610465142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1109593883329867</v>
+        <v>0.1098431346404076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -3416,19 +3416,19 @@
         <v>83838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65518</v>
+        <v>67059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103768</v>
+        <v>104576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0681154838995548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05323104834068317</v>
+        <v>0.05448302147545231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08430798386514998</v>
+        <v>0.08496512648930277</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>581664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>568213</v>
+        <v>568120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>591801</v>
+        <v>591591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9463838653905146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9244997951202737</v>
+        <v>0.9243474667328652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9628782831349412</v>
+        <v>0.9625357521631521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>496</v>
@@ -3466,19 +3466,19 @@
         <v>565315</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>547826</v>
+        <v>548514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>578722</v>
+        <v>578184</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9174224016476008</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8890406116670136</v>
+        <v>0.8901568653595924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9391797146984237</v>
+        <v>0.9383078338953486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1013</v>
@@ -3487,19 +3487,19 @@
         <v>1146978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1127048</v>
+        <v>1126240</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1165298</v>
+        <v>1163757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9318845161004452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.91569201613485</v>
+        <v>0.9150348735106972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9467689516593168</v>
+        <v>0.9455169785245476</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>27680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19081</v>
+        <v>18445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39854</v>
+        <v>39058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06445693902456306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04443301655777857</v>
+        <v>0.04295354282527779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09280653966130152</v>
+        <v>0.09095390057683675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3612,19 +3612,19 @@
         <v>30396</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21444</v>
+        <v>19666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43015</v>
+        <v>42400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06787865158139664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04788703466431834</v>
+        <v>0.04391783814815602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09605856172323606</v>
+        <v>0.09468610837191564</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -3633,19 +3633,19 @@
         <v>58076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44657</v>
+        <v>44639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73884</v>
+        <v>74944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06620362387374679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05090706831649356</v>
+        <v>0.05088598391773419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08422431651959297</v>
+        <v>0.08543275617402124</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>401749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>389575</v>
+        <v>390371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>410348</v>
+        <v>410984</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9355430609754369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9071934603386982</v>
+        <v>0.9090460994231632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9555669834422215</v>
+        <v>0.957046457174722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -3683,19 +3683,19 @@
         <v>417404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>404785</v>
+        <v>405400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>426356</v>
+        <v>428134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9321213484186034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9039414382767643</v>
+        <v>0.9053138916280844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9521129653356822</v>
+        <v>0.956082161851844</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>744</v>
@@ -3704,19 +3704,19 @@
         <v>819153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>803345</v>
+        <v>802285</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>832572</v>
+        <v>832590</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9337963761262532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9157756834804071</v>
+        <v>0.9145672438259788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9490929316835066</v>
+        <v>0.9491140160822658</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>29420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19480</v>
+        <v>19929</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41388</v>
+        <v>41551</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09496854094490603</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06288229084676321</v>
+        <v>0.06433298739659073</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1336015359950324</v>
+        <v>0.134129086318053</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -3829,19 +3829,19 @@
         <v>33575</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23999</v>
+        <v>24253</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44865</v>
+        <v>45507</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09484549381668986</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0677957268810392</v>
+        <v>0.06851326175566226</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1267396552470704</v>
+        <v>0.1285525430451497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -3850,19 +3850,19 @@
         <v>62995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49669</v>
+        <v>49656</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81384</v>
+        <v>80227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09490291973306687</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07482773401282292</v>
+        <v>0.07480814631236896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1226066561775988</v>
+        <v>0.1208636406609886</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>280366</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268398</v>
+        <v>268235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290306</v>
+        <v>289857</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.905031459055094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8663984640049672</v>
+        <v>0.8658709136819468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9371177091532368</v>
+        <v>0.9356670126034092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>310</v>
@@ -3900,19 +3900,19 @@
         <v>320421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>309131</v>
+        <v>308489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329997</v>
+        <v>329743</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9051545061833102</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8732603447529294</v>
+        <v>0.8714474569548502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9322042731189607</v>
+        <v>0.9314867382443378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>565</v>
@@ -3921,19 +3921,19 @@
         <v>600787</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>582398</v>
+        <v>583555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>614113</v>
+        <v>614126</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9050970802669331</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.877393343822401</v>
+        <v>0.8791363593390117</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9251722659871769</v>
+        <v>0.9251918536876312</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>36177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25354</v>
+        <v>25463</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50284</v>
+        <v>50805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1447927741928206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1014756343074182</v>
+        <v>0.1019118353326087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2012561987747622</v>
+        <v>0.2033430512387177</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -4046,19 +4046,19 @@
         <v>44308</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32845</v>
+        <v>33221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58516</v>
+        <v>60241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.113909317485061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08443874610443337</v>
+        <v>0.08540446442993313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1504357858574557</v>
+        <v>0.154869884787782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -4067,19 +4067,19 @@
         <v>80485</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64355</v>
+        <v>62251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97942</v>
+        <v>100315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.125988054886985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1007390384438007</v>
+        <v>0.09744576746820212</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1533151772014354</v>
+        <v>0.1570288139883992</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>213674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199567</v>
+        <v>199046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>224497</v>
+        <v>224388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8552072258071793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7987438012252379</v>
+        <v>0.7966569487612822</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8985243656925818</v>
+        <v>0.8980881646673912</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>310</v>
@@ -4117,19 +4117,19 @@
         <v>344671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>330463</v>
+        <v>328738</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>356134</v>
+        <v>355758</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8860906825149389</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8495642141425445</v>
+        <v>0.845130115212218</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9155612538955666</v>
+        <v>0.9145955355700669</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>501</v>
@@ -4138,19 +4138,19 @@
         <v>558345</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>540888</v>
+        <v>538515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>574475</v>
+        <v>576579</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8740119451130149</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8466848227985644</v>
+        <v>0.8429711860116007</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8992609615561993</v>
+        <v>0.9025542325317979</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>208914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06100169011830042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>314</v>
@@ -4263,19 +4263,19 @@
         <v>338233</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09505429372239403</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>507</v>
@@ -4284,19 +4284,19 @@
         <v>547147</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07835368602888944</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3215817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3184487</v>
+        <v>3185980</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3241250</v>
+        <v>3243371</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9389983098816996</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9298502409869402</v>
+        <v>0.9302862684007126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9464246903007203</v>
+        <v>0.9470439056587525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2984</v>
@@ -4334,19 +4334,19 @@
         <v>3220076</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3178602</v>
+        <v>3185873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3251152</v>
+        <v>3256471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.904945706277606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8932899660397715</v>
+        <v>0.8953335300917235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9136790223965395</v>
+        <v>0.9151737089533047</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5999</v>
@@ -4355,19 +4355,19 @@
         <v>6435893</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6389166</v>
+        <v>6388436</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6477997</v>
+        <v>6479735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9216463139711105</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9149547815625894</v>
+        <v>0.914850239891643</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9276757493492532</v>
+        <v>0.9279246496227895</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>12338</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6873</v>
+        <v>6819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22317</v>
+        <v>20130</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02941289884965429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0163844033450756</v>
+        <v>0.01625544243033672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05320301025421399</v>
+        <v>0.04798917103997975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4723,19 +4723,19 @@
         <v>33921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23946</v>
+        <v>23489</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46844</v>
+        <v>45597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08571293060001904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06050692951750852</v>
+        <v>0.05935353777745836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1183667132384003</v>
+        <v>0.1152160800732944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4744,19 +4744,19 @@
         <v>46259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33845</v>
+        <v>34086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62159</v>
+        <v>60194</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05674426198427315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04151615913385042</v>
+        <v>0.04181163245583871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07624782517262371</v>
+        <v>0.07383821272760757</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>407125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397146</v>
+        <v>399333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412590</v>
+        <v>412644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9705871011503457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9467969897457861</v>
+        <v>0.9520108289600202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836155966549244</v>
+        <v>0.9837445575696633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -4794,19 +4794,19 @@
         <v>361834</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>348911</v>
+        <v>350158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>371809</v>
+        <v>372266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9142870693999809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8816332867615998</v>
+        <v>0.8847839199267057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9394930704824915</v>
+        <v>0.940646462222542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>752</v>
@@ -4815,19 +4815,19 @@
         <v>768959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>753059</v>
+        <v>755024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>781373</v>
+        <v>781132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9432557380157268</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9237521748273765</v>
+        <v>0.9261617872723924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9584838408661497</v>
+        <v>0.9581883675441613</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>13294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7382</v>
+        <v>6583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23873</v>
+        <v>23261</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02251321791185103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01250200576940873</v>
+        <v>0.0111485474888115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04042797090502129</v>
+        <v>0.03939305228301391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -4940,19 +4940,19 @@
         <v>61671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47487</v>
+        <v>46939</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76711</v>
+        <v>76910</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.109434092471624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08426477981537067</v>
+        <v>0.08329228607874949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1361225497437588</v>
+        <v>0.1364764735602147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -4961,19 +4961,19 @@
         <v>74965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60844</v>
+        <v>59601</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94018</v>
+        <v>91954</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06495863760626297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05272221632229481</v>
+        <v>0.05164576576503117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08146868532729094</v>
+        <v>0.0796804685375594</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>577202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>566623</v>
+        <v>567235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>583114</v>
+        <v>583913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.977486782088149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595720290949777</v>
+        <v>0.9606069477169861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874979942305913</v>
+        <v>0.9888514525111886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>518</v>
@@ -5011,19 +5011,19 @@
         <v>501873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>486833</v>
+        <v>486634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>516057</v>
+        <v>516605</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8905659075283759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.863877450256241</v>
+        <v>0.8635235264397846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9157352201846293</v>
+        <v>0.9167077139212505</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1073</v>
@@ -5032,19 +5032,19 @@
         <v>1079075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1060022</v>
+        <v>1062086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1093196</v>
+        <v>1094439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.935041362393737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.918531314672709</v>
+        <v>0.9203195314624406</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9472777836777052</v>
+        <v>0.9483542342349688</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>23221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15038</v>
+        <v>15099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34210</v>
+        <v>35631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03470477251317614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02247445194378963</v>
+        <v>0.02256557753254211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05112914559326054</v>
+        <v>0.05325219370444368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -5157,19 +5157,19 @@
         <v>51147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39066</v>
+        <v>37683</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67778</v>
+        <v>65519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0773333884850182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05906634484979395</v>
+        <v>0.05697567394183081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1024792234731564</v>
+        <v>0.09906320581894998</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5178,19 +5178,19 @@
         <v>74368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58299</v>
+        <v>58855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92246</v>
+        <v>96004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05589555988305964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04381786259929756</v>
+        <v>0.04423614637670639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06933236060733716</v>
+        <v>0.07215731943504147</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>645876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634887</v>
+        <v>633466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654059</v>
+        <v>653998</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9652952274868238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9488708544067392</v>
+        <v>0.9467478062955572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9775255480562102</v>
+        <v>0.9774344224674579</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>617</v>
@@ -5228,19 +5228,19 @@
         <v>610239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>593608</v>
+        <v>595867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>622320</v>
+        <v>623703</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9226666115149819</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8975207765268434</v>
+        <v>0.9009367941810498</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9409336551502061</v>
+        <v>0.9430243260581689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1234</v>
@@ -5249,19 +5249,19 @@
         <v>1256115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1238237</v>
+        <v>1234479</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1272184</v>
+        <v>1271628</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9441044401169404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9306676393926628</v>
+        <v>0.9278426805649587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9561821374007025</v>
+        <v>0.9557638536232936</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>22412</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14754</v>
+        <v>14221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33815</v>
+        <v>32965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03469149647968763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02283684387203718</v>
+        <v>0.02201216253443195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05234083779049975</v>
+        <v>0.05102557374969504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -5374,19 +5374,19 @@
         <v>31565</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21645</v>
+        <v>21047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45115</v>
+        <v>44099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0486300897381331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03334753596888122</v>
+        <v>0.03242555716132915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06950674462744394</v>
+        <v>0.06794047498865836</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5395,19 +5395,19 @@
         <v>53977</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41673</v>
+        <v>40589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70217</v>
+        <v>71228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04167709075781042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03217658012149075</v>
+        <v>0.03133982426000554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05421611113894699</v>
+        <v>0.0549969912828084</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>623636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>612233</v>
+        <v>613083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>631294</v>
+        <v>631827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9653085035203124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9476591622095</v>
+        <v>0.9489744262503051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9771631561279627</v>
+        <v>0.9779878374655688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -5445,19 +5445,19 @@
         <v>617512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>603962</v>
+        <v>604978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>627432</v>
+        <v>628030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9513699102618669</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9304932553725566</v>
+        <v>0.9320595250113415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.966652464031119</v>
+        <v>0.9675744428386708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1135</v>
@@ -5466,19 +5466,19 @@
         <v>1241148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1224908</v>
+        <v>1223897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1253452</v>
+        <v>1254536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9583229092421895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9457838888610538</v>
+        <v>0.9450030087171916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9678234198785094</v>
+        <v>0.9686601757399945</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>33788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23216</v>
+        <v>23114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46629</v>
+        <v>47077</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07069800433729014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04857633220854368</v>
+        <v>0.04836345997731233</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09756762325432254</v>
+        <v>0.09850332449766327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -5591,19 +5591,19 @@
         <v>25241</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16405</v>
+        <v>16212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36432</v>
+        <v>36035</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05080218890605045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03301897956157937</v>
+        <v>0.03262972408752629</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07332601077598362</v>
+        <v>0.07252633481413354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -5612,19 +5612,19 @@
         <v>59029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44619</v>
+        <v>44587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75741</v>
+        <v>76678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06055689776492735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04577449008934505</v>
+        <v>0.0457411506925479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07770166679047301</v>
+        <v>0.07866294510394387</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>444130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>431289</v>
+        <v>430841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>454702</v>
+        <v>454804</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9293019956627099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9024323767456774</v>
+        <v>0.9014966755023366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9514236677914564</v>
+        <v>0.9516365400226875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>410</v>
@@ -5662,19 +5662,19 @@
         <v>471608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>460417</v>
+        <v>460814</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>480444</v>
+        <v>480637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9491978110939495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9266739892240164</v>
+        <v>0.9274736651858662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9669810204384207</v>
+        <v>0.9673702759124735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>804</v>
@@ -5683,19 +5683,19 @@
         <v>915738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899026</v>
+        <v>898089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930148</v>
+        <v>930180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9394431022350727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9222983332095267</v>
+        <v>0.9213370548960562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9542255099106548</v>
+        <v>0.9542588493074522</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>36641</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26387</v>
+        <v>25918</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49927</v>
+        <v>50715</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1095941642963993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07892613561818253</v>
+        <v>0.07752152740215112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1493344691050721</v>
+        <v>0.1516916010917018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5808,19 +5808,19 @@
         <v>29229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19805</v>
+        <v>19766</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41062</v>
+        <v>41863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07737519415342879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05242835854223055</v>
+        <v>0.05232358944644736</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.108698510537891</v>
+        <v>0.1108191514162831</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -5829,19 +5829,19 @@
         <v>65870</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52536</v>
+        <v>50779</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82922</v>
+        <v>84118</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09250212751629022</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07377645368901264</v>
+        <v>0.07130902496686056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.116447926078885</v>
+        <v>0.1181286283470074</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>297689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284403</v>
+        <v>283615</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307943</v>
+        <v>308412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8904058357036007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8506655308949272</v>
+        <v>0.8483083989082981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9210738643818173</v>
+        <v>0.9224784725978488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -5879,19 +5879,19 @@
         <v>348533</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336700</v>
+        <v>335899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357957</v>
+        <v>357996</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9226248058465712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8913014894621091</v>
+        <v>0.8891808485837169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9475716414577695</v>
+        <v>0.9476764105535526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>618</v>
@@ -5900,19 +5900,19 @@
         <v>646222</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>629170</v>
+        <v>627974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>659556</v>
+        <v>661313</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9074978724837097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.883552073921115</v>
+        <v>0.8818713716529925</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9262235463109872</v>
+        <v>0.9286909750331394</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>21787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14219</v>
+        <v>14312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31867</v>
+        <v>30938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0847768842055623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05532742265306445</v>
+        <v>0.05568786286085933</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1239962373334949</v>
+        <v>0.1203837221293978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -6025,19 +6025,19 @@
         <v>40565</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27449</v>
+        <v>27086</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56345</v>
+        <v>55529</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1013684804375241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06859399073535258</v>
+        <v>0.06768582348590527</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1408021521663121</v>
+        <v>0.1387630319883267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -6046,19 +6046,19 @@
         <v>62352</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47042</v>
+        <v>47370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81051</v>
+        <v>78586</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09488001241816846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07158250249353371</v>
+        <v>0.07208201773472105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1233332978424767</v>
+        <v>0.1195830669620512</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>235211</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>225131</v>
+        <v>226060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242779</v>
+        <v>242686</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9152231157944377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8760037626665051</v>
+        <v>0.8796162778706019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9446725773469354</v>
+        <v>0.9443121371391408</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -6096,19 +6096,19 @@
         <v>359604</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>343824</v>
+        <v>344640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>372720</v>
+        <v>373083</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8986315195624759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8591978478336876</v>
+        <v>0.8612369680116733</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9314060092646472</v>
+        <v>0.9323141765140947</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>547</v>
@@ -6117,19 +6117,19 @@
         <v>594815</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>576116</v>
+        <v>578581</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>610125</v>
+        <v>609797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9051199875818315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8766667021575232</v>
+        <v>0.8804169330379487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9284174975064663</v>
+        <v>0.927917982265279</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>163481</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04816261280850116</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>251</v>
@@ -6242,19 +6242,19 @@
         <v>273339</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07711548702102915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>406</v>
@@ -6263,19 +6263,19 @@
         <v>436820</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0629523910004411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3230869</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3205672</v>
+        <v>3202957</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3256637</v>
+        <v>3254059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9518373871914988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9444142031766686</v>
+        <v>0.9436142636682793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9594286392921332</v>
+        <v>0.9586693204113685</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3087</v>
@@ -6313,19 +6313,19 @@
         <v>3271203</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3236839</v>
+        <v>3236070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3303045</v>
+        <v>3302178</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9228845129789709</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9131895260968831</v>
+        <v>0.9129726637153279</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9318680332523367</v>
+        <v>0.9316233508860492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6163</v>
@@ -6334,19 +6334,19 @@
         <v>6502072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6459742</v>
+        <v>6456972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6543365</v>
+        <v>6543455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9370476089995589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9309471746873944</v>
+        <v>0.9305479833826955</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.942998524006981</v>
+        <v>0.9430114409617005</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6286</v>
+        <v>6720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003189911090692942</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01541368750698093</v>
+        <v>0.01647975832150497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -6702,19 +6702,19 @@
         <v>26129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15369</v>
+        <v>13499</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43975</v>
+        <v>44599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07207637837713354</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04239563387338612</v>
+        <v>0.03723832855269885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.121305415590591</v>
+        <v>0.1230277847383158</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -6723,19 +6723,19 @@
         <v>27429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13818</v>
+        <v>14812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44543</v>
+        <v>48254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03560845710132066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01793844847283793</v>
+        <v>0.01922901916492277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05782503234994658</v>
+        <v>0.06264238811506762</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>406492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401507</v>
+        <v>401073</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9968100889093071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9845863124930191</v>
+        <v>0.9835202416784949</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>336383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318537</v>
+        <v>317913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347143</v>
+        <v>349013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9279236216228665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.878694584409409</v>
+        <v>0.8769722152616841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.957604366126614</v>
+        <v>0.9627616714473011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>365</v>
@@ -6794,19 +6794,19 @@
         <v>742876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>725762</v>
+        <v>722051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756487</v>
+        <v>755493</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9643915428986795</v>
+        <v>0.9643915428986793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9421749676500533</v>
+        <v>0.9373576118849325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982061551527162</v>
+        <v>0.9807709808350774</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>16973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8515</v>
+        <v>8238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33215</v>
+        <v>31609</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03559035740590861</v>
+        <v>0.03559035740590862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01785551599658062</v>
+        <v>0.01727539275263491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06964884879313805</v>
+        <v>0.06628153210311283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -6919,19 +6919,19 @@
         <v>42961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30346</v>
+        <v>31180</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57234</v>
+        <v>58195</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08573717522904578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06055986058387203</v>
+        <v>0.06222468561465787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1142205223569352</v>
+        <v>0.1161386649659689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -6940,19 +6940,19 @@
         <v>59934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44710</v>
+        <v>45242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79621</v>
+        <v>83541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06128402512975614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04571681558972368</v>
+        <v>0.0462610815649997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08141404776221355</v>
+        <v>0.08542234374504641</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>459917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>443675</v>
+        <v>445281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468375</v>
+        <v>468652</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9644096425940913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9303511512068617</v>
+        <v>0.9337184678968872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9821444840034192</v>
+        <v>0.9827246072473651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -6990,19 +6990,19 @@
         <v>458122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>443849</v>
+        <v>442888</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>470737</v>
+        <v>469903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9142628247709541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.885779477643065</v>
+        <v>0.8838613350340305</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9394401394161281</v>
+        <v>0.937775314385342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>713</v>
@@ -7011,19 +7011,19 @@
         <v>918039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>898352</v>
+        <v>894432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>933263</v>
+        <v>932731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9387159748702437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9185859522377865</v>
+        <v>0.9145776562549536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9542831844102763</v>
+        <v>0.9537389184350004</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>23900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14951</v>
+        <v>14230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36414</v>
+        <v>35721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03849598365725154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02408279632949529</v>
+        <v>0.02292020271949829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05865254318561663</v>
+        <v>0.0575373318451545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -7136,19 +7136,19 @@
         <v>40938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31579</v>
+        <v>30695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52385</v>
+        <v>53197</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06580237982601525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05075801961865684</v>
+        <v>0.04933812737187381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08420207354408651</v>
+        <v>0.08550702033166076</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -7157,19 +7157,19 @@
         <v>64838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50967</v>
+        <v>50932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80481</v>
+        <v>80408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05216348798200648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04100426140627629</v>
+        <v>0.04097605028677915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06474884953182099</v>
+        <v>0.06469028822045435</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>596937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>584423</v>
+        <v>585116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605886</v>
+        <v>606607</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9615040163427485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9413474568143835</v>
+        <v>0.9424626681548458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9759172036705049</v>
+        <v>0.9770797972805022</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>789</v>
@@ -7207,19 +7207,19 @@
         <v>581201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>569754</v>
+        <v>568942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>590560</v>
+        <v>591444</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9341976201739848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9157979264559136</v>
+        <v>0.914492979668339</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9492419803813433</v>
+        <v>0.950661872628126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1315</v>
@@ -7228,19 +7228,19 @@
         <v>1178138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1162495</v>
+        <v>1162568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1192009</v>
+        <v>1192044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9478365120179936</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9352511504681789</v>
+        <v>0.9353097117795455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9589957385937238</v>
+        <v>0.959023949713221</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>42508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30499</v>
+        <v>30682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58513</v>
+        <v>58280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06067265834348488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04353207455613056</v>
+        <v>0.04379351648583975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08351616696670498</v>
+        <v>0.08318443453251141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -7353,19 +7353,19 @@
         <v>32515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23880</v>
+        <v>24152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41913</v>
+        <v>42205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04412479648681559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0324061321553867</v>
+        <v>0.0327756435942964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05687830917924169</v>
+        <v>0.0572753520171171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -7374,19 +7374,19 @@
         <v>75023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60134</v>
+        <v>60077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94903</v>
+        <v>93442</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05218997037310752</v>
+        <v>0.05218997037310753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04183214756494981</v>
+        <v>0.04179223732378095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06601924831333432</v>
+        <v>0.06500299983119547</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>658109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642104</v>
+        <v>642337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>670118</v>
+        <v>669935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9393273416565151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9164838330332949</v>
+        <v>0.9168155654674885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9564679254438689</v>
+        <v>0.9562064835141602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1090</v>
@@ -7424,19 +7424,19 @@
         <v>704371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>694973</v>
+        <v>694681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>713006</v>
+        <v>712734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9558752035131843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9431216908207587</v>
+        <v>0.9427246479828827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9675938678446138</v>
+        <v>0.9672243564057033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1718</v>
@@ -7445,19 +7445,19 @@
         <v>1362481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1342601</v>
+        <v>1344062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1377370</v>
+        <v>1377427</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9478100296268924</v>
+        <v>0.9478100296268925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9339807516866646</v>
+        <v>0.9349970001688046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9581678524350499</v>
+        <v>0.958207762676219</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>49964</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38449</v>
+        <v>38648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66397</v>
+        <v>65130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08199638667407097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06309867151862769</v>
+        <v>0.06342515019617961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1089650127627735</v>
+        <v>0.1068856401390336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -7570,19 +7570,19 @@
         <v>33216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25750</v>
+        <v>25579</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43880</v>
+        <v>43001</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05461963061102933</v>
+        <v>0.05461963061102935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04234200270890056</v>
+        <v>0.04206092177592352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0721552600591141</v>
+        <v>0.07071061005402465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -7591,19 +7591,19 @@
         <v>83180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68660</v>
+        <v>68984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100313</v>
+        <v>99759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06832165532300859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05639559727873156</v>
+        <v>0.05666160217154436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08239403961270801</v>
+        <v>0.0819386742494337</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>559382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>542949</v>
+        <v>544216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>570897</v>
+        <v>570698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9180036133259289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.891034987237227</v>
+        <v>0.8931143598609667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9369013284813726</v>
+        <v>0.9365748498038203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>947</v>
@@ -7641,19 +7641,19 @@
         <v>574917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>564253</v>
+        <v>565132</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>582383</v>
+        <v>582554</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9453803693889704</v>
+        <v>0.9453803693889707</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9278447399408859</v>
+        <v>0.9292893899459753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9576579972910991</v>
+        <v>0.9579390782240765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1555</v>
@@ -7662,19 +7662,19 @@
         <v>1134299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1117166</v>
+        <v>1117720</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1148819</v>
+        <v>1148495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9316783446769915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9176059603872925</v>
+        <v>0.9180613257505663</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9436044027212689</v>
+        <v>0.9433383978284556</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>37849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29760</v>
+        <v>29077</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48295</v>
+        <v>49651</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09297745050999656</v>
+        <v>0.09297745050999655</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07310675599082481</v>
+        <v>0.07142749554992753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1186387640876489</v>
+        <v>0.1219691438513402</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -7787,19 +7787,19 @@
         <v>25630</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19335</v>
+        <v>19081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33696</v>
+        <v>33495</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05835962963977718</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04402640782466866</v>
+        <v>0.04344819677876455</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0767277690824036</v>
+        <v>0.07626996186537703</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>102</v>
@@ -7808,19 +7808,19 @@
         <v>63479</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52334</v>
+        <v>51574</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77393</v>
+        <v>76849</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0750122513741758</v>
+        <v>0.07501225137417582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06184271268563638</v>
+        <v>0.06094430610042655</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09145491175556908</v>
+        <v>0.09081106790835877</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>369231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>358785</v>
+        <v>357429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>377320</v>
+        <v>378003</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9070225494900034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8813612359123514</v>
+        <v>0.8780308561486597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9268932440091752</v>
+        <v>0.9285725044500724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>779</v>
@@ -7858,19 +7858,19 @@
         <v>413536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>405470</v>
+        <v>405671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>419831</v>
+        <v>420085</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.941640370360223</v>
+        <v>0.9416403703602229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9232722309175962</v>
+        <v>0.9237300381346232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9559735921753312</v>
+        <v>0.9565518032212356</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1295</v>
@@ -7879,19 +7879,19 @@
         <v>782767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>768853</v>
+        <v>769397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>793912</v>
+        <v>794672</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9249877486258241</v>
+        <v>0.9249877486258243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.908545088244431</v>
+        <v>0.9091889320916413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9381572873143637</v>
+        <v>0.9390556938995733</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>32683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24613</v>
+        <v>24772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42382</v>
+        <v>43672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.105362606713158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07934577079492748</v>
+        <v>0.07985863312603422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1366291490637806</v>
+        <v>0.140787655720363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -8004,19 +8004,19 @@
         <v>44078</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35595</v>
+        <v>35131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54383</v>
+        <v>53542</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09487204568151365</v>
+        <v>0.09487204568151364</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07661251864966068</v>
+        <v>0.07561512426407668</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1170516476776715</v>
+        <v>0.1152416943813929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>133</v>
@@ -8025,19 +8025,19 @@
         <v>76762</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65017</v>
+        <v>65443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92296</v>
+        <v>89925</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09907199928250032</v>
+        <v>0.09907199928250031</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08391320606597751</v>
+        <v>0.08446299770685242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.119121378729381</v>
+        <v>0.1160615762907284</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>277515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>267816</v>
+        <v>266526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>285585</v>
+        <v>285426</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.894637393286842</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8633708509362195</v>
+        <v>0.8592123442796374</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9206542292050728</v>
+        <v>0.920141366873966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>799</v>
@@ -8075,19 +8075,19 @@
         <v>420531</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>410226</v>
+        <v>411067</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>429014</v>
+        <v>429478</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9051279543184864</v>
+        <v>0.9051279543184862</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8829483523223285</v>
+        <v>0.8847583056186072</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9233874813503392</v>
+        <v>0.9243848757359233</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1206</v>
@@ -8096,19 +8096,19 @@
         <v>698045</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>682511</v>
+        <v>684882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>709790</v>
+        <v>709364</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9009280007174998</v>
+        <v>0.9009280007174996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8808786212706187</v>
+        <v>0.8839384237092713</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.916086793934022</v>
+        <v>0.9155370022931474</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>205178</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05807871965949284</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>344</v>
@@ -8221,19 +8221,19 @@
         <v>245467</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06572909020462114</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>572</v>
@@ -8242,19 +8242,19 @@
         <v>450645</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06201010610419751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3327584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3300457</v>
+        <v>3296501</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3355864</v>
+        <v>3355344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9419212803405074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9342426743862479</v>
+        <v>0.933122732384407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9499264660561269</v>
+        <v>0.9497793335715041</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5019</v>
@@ -8292,19 +8292,19 @@
         <v>3489062</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3457162</v>
+        <v>3459783</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3514984</v>
+        <v>3516140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9342709097953787</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9257291380720881</v>
+        <v>0.9264309933852627</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9412120754011215</v>
+        <v>0.9415216961883739</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8167</v>
@@ -8313,19 +8313,19 @@
         <v>6816646</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6776493</v>
+        <v>6773863</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6857838</v>
+        <v>6853333</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9379898938958026</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9324647707866469</v>
+        <v>0.932102833284547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9436580649482329</v>
+        <v>0.9430381792767055</v>
       </c>
     </row>
     <row r="27">
